--- a/file/RSME.xlsx
+++ b/file/RSME.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2014年三月份的误差" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,11 +37,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="186" formatCode="0.0000_ "/>
-    <numFmt numFmtId="190" formatCode="0.00000_ "/>
-    <numFmt numFmtId="191" formatCode="0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -81,11 +82,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -368,19 +369,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.25" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -388,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41699</v>
       </c>
@@ -407,7 +408,7 @@
         <v>4.5618521481367571E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41700</v>
       </c>
@@ -426,7 +427,7 @@
         <v>0.23202392311599976</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41701</v>
       </c>
@@ -445,7 +446,7 @@
         <v>1.8077203068233047E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41702</v>
       </c>
@@ -464,7 +465,7 @@
         <v>9.990225454948082E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41703</v>
       </c>
@@ -483,7 +484,7 @@
         <v>5.6474903591982309E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41704</v>
       </c>
@@ -502,7 +503,7 @@
         <v>8.8390640925484584E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>41705</v>
       </c>
@@ -521,7 +522,7 @@
         <v>4.8318282048563532E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41706</v>
       </c>
@@ -540,7 +541,7 @@
         <v>4.3849427365086714E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41707</v>
       </c>
@@ -559,7 +560,7 @@
         <v>0.10171545911396399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41708</v>
       </c>
@@ -578,7 +579,7 @@
         <v>2.0921256016133822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41709</v>
       </c>
@@ -597,7 +598,7 @@
         <v>9.6492606733240477E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41710</v>
       </c>
@@ -616,7 +617,7 @@
         <v>6.9110032171507477E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41711</v>
       </c>
@@ -635,7 +636,7 @@
         <v>6.1916948291548821E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>41712</v>
       </c>
@@ -654,7 +655,7 @@
         <v>1.4589858588731743E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>41713</v>
       </c>
@@ -673,7 +674,7 @@
         <v>2.5045093128269032E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41714</v>
       </c>
@@ -692,7 +693,7 @@
         <v>2.3140719238195571E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41715</v>
       </c>
@@ -711,7 +712,7 @@
         <v>0.16345455552092189</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41716</v>
       </c>
@@ -730,7 +731,7 @@
         <v>2.4685504601320012E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41717</v>
       </c>
@@ -749,7 +750,7 @@
         <v>0.13563556756755393</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41718</v>
       </c>
@@ -768,7 +769,7 @@
         <v>2.2647058713917371E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41719</v>
       </c>
@@ -787,7 +788,7 @@
         <v>1.8152706915963959E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41720</v>
       </c>
@@ -806,7 +807,7 @@
         <v>1.7326045287712262E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41721</v>
       </c>
@@ -825,7 +826,7 @@
         <v>0.14444362177701944</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41722</v>
       </c>
@@ -844,7 +845,7 @@
         <v>9.0645380667373751E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41723</v>
       </c>
@@ -863,7 +864,7 @@
         <v>4.1933576351345953E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>41724</v>
       </c>
@@ -882,7 +883,7 @@
         <v>9.1163555059384976E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41725</v>
       </c>
@@ -901,7 +902,7 @@
         <v>1.6267702732305402E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41726</v>
       </c>
@@ -920,7 +921,7 @@
         <v>2.978114739855248E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41727</v>
       </c>
@@ -939,7 +940,7 @@
         <v>1.8075023983379294E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41728</v>
       </c>
@@ -958,7 +959,7 @@
         <v>4.2448383439743186E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41729</v>
       </c>
@@ -977,7 +978,7 @@
         <v>4.8593032663050106E-6</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" s="5">
         <f>AVERAGE(D2:D32)</f>
         <v>-0.1158669964804756</v>
@@ -1006,198 +1007,198 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="e">
         <f>(#REF!-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="e">
-        <f t="shared" ref="A3:A32" si="0">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A3" si="0">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="e">
-        <f t="shared" ref="A4:A33" si="1">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A4" si="1">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="e">
-        <f t="shared" ref="A5:A34" si="2">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A5" si="2">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="e">
-        <f t="shared" ref="A6:A35" si="3">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A6" si="3">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="e">
-        <f t="shared" ref="A7:A36" si="4">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A7" si="4">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="e">
-        <f t="shared" ref="A8:A37" si="5">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A8" si="5">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="e">
-        <f t="shared" ref="A9:A38" si="6">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A9" si="6">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="e">
-        <f t="shared" ref="A10:A39" si="7">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A10" si="7">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="e">
-        <f t="shared" ref="A11:A40" si="8">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A11" si="8">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="e">
-        <f t="shared" ref="A12:A41" si="9">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A12" si="9">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="e">
-        <f t="shared" ref="A13:A42" si="10">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A13" si="10">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="e">
-        <f t="shared" ref="A14:A43" si="11">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A14" si="11">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="e">
-        <f t="shared" ref="A15:A44" si="12">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A15" si="12">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="e">
-        <f t="shared" ref="A16:A45" si="13">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A16" si="13">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="e">
-        <f t="shared" ref="A17:A46" si="14">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A17" si="14">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="e">
-        <f t="shared" ref="A18:A47" si="15">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A18" si="15">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="e">
-        <f t="shared" ref="A19:A48" si="16">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A19" si="16">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="e">
-        <f t="shared" ref="A20:A49" si="17">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A20" si="17">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="e">
-        <f t="shared" ref="A21:A50" si="18">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A21" si="18">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="e">
-        <f t="shared" ref="A22:A51" si="19">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A22" si="19">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="e">
-        <f t="shared" ref="A23:A52" si="20">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A23" si="20">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="e">
-        <f t="shared" ref="A24:A53" si="21">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A24" si="21">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="e">
-        <f t="shared" ref="A25:A54" si="22">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A25" si="22">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="e">
-        <f t="shared" ref="A26:A55" si="23">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A26" si="23">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="e">
-        <f t="shared" ref="A27:A56" si="24">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A27" si="24">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="e">
-        <f t="shared" ref="A28:A57" si="25">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A28" si="25">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="e">
-        <f t="shared" ref="A29:A58" si="26">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A29" si="26">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="e">
-        <f t="shared" ref="A30:A59" si="27">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A30" si="27">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="e">
-        <f t="shared" ref="A31:A60" si="28">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A31" si="28">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="e">
-        <f t="shared" ref="A32:A61" si="29">(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A32" si="29">(#REF!-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="e">
         <f>AVERAGE(A2:A32)</f>
         <v>#REF!</v>
@@ -1213,18 +1214,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.4140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41760</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>0.36232567013813199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41761</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>0.294544548572924</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41762</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>3.7876100596077107E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41763</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>0.30089110294619342</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41764</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>2.0580671493652964E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41765</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>1.5016373525323713E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>41766</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>0.14251833516747686</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41767</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>6.7816417551224183E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41768</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>4.0211547721493443E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41769</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>0.1677453438905552</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41770</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>1.2968551653990391E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41771</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>9.6697378126258393E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41772</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>1.3744786845982631E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>41773</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>2.120225003177292E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>41774</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>3.8844084802686116E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41775</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>3.449870839464205E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41776</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>2.1241379719470063E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41777</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>2.0807024881876822E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41778</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>2.0736053447427662E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41779</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>0.1654729520812829</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41780</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>1.5381174023150633E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41781</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>4.1064468181031986E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41782</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>2.0026682608304095E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41783</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>5.0708014486429802E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41784</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>6.9441105031943255E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>41785</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>5.2831291730130035E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41786</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>1.1210912961733098E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41787</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>4.8790330138704491E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41788</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>3.2557680605560706E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41789</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>1.6004212935355091E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41790</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>1.4717193049308849E-2</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" s="4">
         <f>AVERAGE(D2:D32)</f>
         <v>4.1692101451775175E-2</v>
@@ -1832,4 +1833,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>(C2-B2)/C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>D2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">(C3-B3)/C3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">D3*D3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.34027777777777785</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>AVERAGE(E2:E5)</f>
+        <v>0.14756944444444448</v>
+      </c>
+      <c r="F6">
+        <f>SQRT(E6)</f>
+        <v>0.38414768572053704</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>